--- a/project_booking_cab/Registered Driver.xlsx
+++ b/project_booking_cab/Registered Driver.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,10 +774,8 @@
           <t>driver</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
+      <c r="B11" t="n">
+        <v>545</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -802,6 +800,80 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lk</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>lk</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>lk</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>lk</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>lk</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>lk</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>xc</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>xc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>xc</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>xc</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>xc</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>xc</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>xc</t>
         </is>
       </c>
     </row>
